--- a/Teashop.xlsx
+++ b/Teashop.xlsx
@@ -99,9 +99,6 @@
     <t>T_1</t>
   </si>
   <si>
-    <t xml:space="preserve">To verify Title fo the website </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.User open browser </t>
   </si>
   <si>
@@ -120,20 +117,7 @@
     <t xml:space="preserve">1.User is on home page </t>
   </si>
   <si>
-    <t>Step1&gt;&gt;Below details should be displayed on home page 
--- Title 
--- Heading 
--- Bag icon to displayed I tems added 
--- Search button shoud be displayed to search items
---
--- All Intems should be displayed 
---Pagnination Page should be dis</t>
-  </si>
-  <si>
     <t xml:space="preserve">To verify details  of Each item </t>
-  </si>
-  <si>
-    <t>Tea Shop&gt;&gt;Intems</t>
   </si>
   <si>
     <t>Tea Shop&gt;&gt;Each Item</t>
@@ -147,65 +131,19 @@
 3.Item Name and photo are the clickable area</t>
   </si>
   <si>
-    <t>Step1&gt;&gt;Each item should have below details 
--- Name (Name should be radable)
---Price(Along with currency)
--- Image(I mage should be properly displayed)
-- Add Button (To Add inter in inventory)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step1&gt;&gt;User should ne navigated to next page wich shows details of That item only with detailed Information
---Price(Along with currency)
--- Image(I mage should be properly displayed)
-- Add Button (To Add inter in inventory)
--- Quantity of Intem (With + to increase and - Decrease to reduce quantity)
--- GMS:To show hwo many grams tea is 
-I will deisplayed detailed information about product
-Step2&gt;&gt; User should be able tonavigate back on home page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.User is on home page 
-2.User is On perticular items details page </t>
-  </si>
-  <si>
-    <t>Step1&gt;&gt;Intems will be added of selected quntity and GMS 
-Quntity 1
-GMS:25g 
-Price of one Qnatity</t>
-  </si>
-  <si>
-    <t>To Verify Added should not be added if intem doesn’t exist</t>
-  </si>
-  <si>
     <t>Tea Shop&gt;&gt;Error message when quantity not present</t>
   </si>
   <si>
     <t>Tea Shop&gt;&gt;Add Item</t>
   </si>
   <si>
-    <t xml:space="preserve">ToVerify intem Added sucessfully </t>
-  </si>
-  <si>
-    <t>Step1&gt;&gt;Isystem should give error message as only 2 intems remmained</t>
-  </si>
-  <si>
     <t>Tea Shop&gt;&gt;Error message when Item is out of stock</t>
-  </si>
-  <si>
-    <t>To Verify Error amessage displayed when item is out of stock</t>
   </si>
   <si>
     <t>1.User is on home page 
 2.Perticual Item is out of stock</t>
   </si>
   <si>
-    <t>1.User is on details page of perticular item
-2.Perticual Item Quantity is only 2</t>
-  </si>
-  <si>
-    <t>Step1&gt;&gt;Ssyetm should display the error as item is out of stock below the item</t>
-  </si>
-  <si>
     <t>Tea Shop&gt;&gt;To Verify tow or more items added</t>
   </si>
   <si>
@@ -216,18 +154,9 @@
 2.Two Or more items orsent on home page</t>
   </si>
   <si>
-    <t>Step1&gt;&gt;Inventory Should add Item A as well as ItemB</t>
-  </si>
-  <si>
-    <t>To Verify items removed from inventoty</t>
-  </si>
-  <si>
     <t>1.Two or more items added in inventory</t>
   </si>
   <si>
-    <t xml:space="preserve">Step1&gt;&gt;Ityems should be removed from inventotry </t>
-  </si>
-  <si>
     <t>T_2</t>
   </si>
   <si>
@@ -252,13 +181,7 @@
     <t>T_9</t>
   </si>
   <si>
-    <t>Tea Shop&gt;&gt;To verifyItems removed from inventory</t>
-  </si>
-  <si>
     <t>Tea Shop&gt;&gt;To pop up message to empty Inventory</t>
-  </si>
-  <si>
-    <t>To Verify  pop up message when you remove last intem from inventory</t>
   </si>
   <si>
     <t>1.Only one item present in inventory</t>
@@ -313,63 +236,6 @@
       </rPr>
       <t xml:space="preserve">
 Note: Execute same scenario on Chrome/Firefox and om Internet Explorer and Android and IOS platforms</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Secenario A:
-1.Click on Item name 
-2.Navigate back to home page
-Secenario A:
-1.Click on Item photo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note: Execute same scenario on Chrome/Firefox and om Internet Explorer and Android and IOS platforms</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Secenario A:
-1.Clcik on + Button to add Quantity 
-e.g
-2.Clcik on - Button to add Quantity 1
-eg.1
-3.Select GMS of tea e.g 25 gm
-4.Click on Add button 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note: Execute same scenario on Chrome/Firefox and om Internet Explorer and Android and IOS platforms</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-1.Select Quntity as 3
-2.Clcik on Add button 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note: Execute same scenario on Chrome/Firefox and om Internet Explorer and Android and IOS platforms</t>
     </r>
   </si>
   <si>
@@ -424,6 +290,140 @@
       <t>Note: Execute same scenario on Chrome/Firefox and om Internet Explorer and Android and IOS platforms</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">To verify Title for the website </t>
+  </si>
+  <si>
+    <t>Step1&gt;&gt;Below details should be displayed on home page 
+-- Title 
+-- Heading 
+-- Bag icon to displayed I items added 
+-- Search button should be displayed to search items
+--
+-- All Items should be displayed 
+--Pagination Page should be dis</t>
+  </si>
+  <si>
+    <t>Tea Shop&gt;&gt;Items</t>
+  </si>
+  <si>
+    <t>Step1&gt;&gt;Each item should have below details 
+-- Name (Name should be readable)
+--Price(Along with currency)
+-- Image(I mage should be properly displayed)
+- Add Button (To Add inter in inventory)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scenario A:
+1.Click on Item name 
+2.Navigate back to home page
+Scenario A:
+1.Click on Item photo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note: Execute same scenario on Chrome/Firefox and om Internet Explorer and Android and IOS platforms</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Step1&gt;&gt;User should ne navigated to next page which shows details of That item only with detailed Information
+--Price(Along with currency)
+-- Image(I mage should be properly displayed)
+- Add Button (To Add inter in inventory)
+-- Quantity of Item (With + to increase and - Decrease to reduce quantity)
+-- GMS:To show how many grams tea is 
+I will displayed detailed information about product
+Step2&gt;&gt; User should be able to navigate back on home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify item Added successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.User is on home page 
+2.User is On particular items details page </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scenario A:
+1.Clcik on + Button to add Quantity 
+e.g.
+2.Clcik on - Button to add Quantity 1
+eg.1
+3.Select GMS of tea e.g. 25 gm
+4.Click on Add button 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note: Execute same scenario on Chrome/Firefox and om Internet Explorer and Android and IOS platforms</t>
+    </r>
+  </si>
+  <si>
+    <t>Step1&gt;&gt;Items will be added of selected quantity and GMS 
+Quantity 1
+GMS:25g 
+Price of one Quantity</t>
+  </si>
+  <si>
+    <t>To Verify Added should not be added if item doesn’t exist</t>
+  </si>
+  <si>
+    <t>1.User is on details page of particular item
+2.Perticual Item Quantity is only 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1.Select Quantity as 3
+2.Clcik on Add button 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note: Execute same scenario on Chrome/Firefox and om Internet Explorer and Android and IOS platforms</t>
+    </r>
+  </si>
+  <si>
+    <t>Step1&gt;&gt;System should give error message as only 2 items remained</t>
+  </si>
+  <si>
+    <t>To Verify Error message displayed when item is out of stock</t>
+  </si>
+  <si>
+    <t>Step1&gt;&gt;System should display the error as item is out of stock below the item</t>
+  </si>
+  <si>
+    <t>Step1&gt;&gt;Inventory Should add Item A as well as Item B</t>
+  </si>
+  <si>
+    <t>Tea Shop&gt;&gt;To verify Items removed from inventory</t>
+  </si>
+  <si>
+    <t>To Verify items removed from inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step1&gt;&gt;Items should be removed from inventory </t>
+  </si>
+  <si>
+    <t>To Verify  pop up message when you remove last item from inventory</t>
+  </si>
 </sst>
 </file>
 
@@ -432,7 +432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +476,14 @@
       <sz val="10.5"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -592,16 +600,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -888,7 +896,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,13 +910,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
@@ -917,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -937,8 +945,8 @@
         <v>3</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
@@ -955,8 +963,8 @@
         <v>5</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
@@ -993,8 +1001,8 @@
         <v>9</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1011,8 +1019,8 @@
         <v>11</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1059,19 +1067,19 @@
         <v>23</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="I9" s="9"/>
     </row>
@@ -1081,22 +1089,22 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="8" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -1106,22 +1114,22 @@
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="8" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I11" s="11"/>
     </row>
@@ -1131,22 +1139,22 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I12" s="11"/>
     </row>
@@ -1156,22 +1164,22 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="I13" s="11"/>
     </row>
@@ -1181,22 +1189,22 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="8" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="I14" s="11"/>
     </row>
@@ -1206,22 +1214,22 @@
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="8" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I15" s="11"/>
     </row>
@@ -1231,22 +1239,22 @@
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="8" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>22</v>
@@ -1258,22 +1266,22 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="8" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="I17" s="11"/>
     </row>
@@ -1283,33 +1291,27 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="I18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A1:G1"/>
@@ -1317,6 +1319,12 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
